--- a/pandas_to_excel.xlsx
+++ b/pandas_to_excel.xlsx
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>830</v>
+        <v>233</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -502,21 +502,21 @@
         <v>4.179586450174296e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002816887358085887</v>
+        <v>0.0002816887358085889</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I2" t="n">
-        <v>4.561541865189467e-18</v>
+        <v>1.419706767417566e-18</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001662540816331039</v>
+        <v>0.001662540816331038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>507</v>
+        <v>875</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -536,13 +536,13 @@
         <v>2.079275561727767e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J3" t="n">
         <v>0.00149754591671639</v>
@@ -550,11 +550,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>63</v>
+        <v>523</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R449</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R447</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -570,13 +570,13 @@
         <v>2.079275561727767e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J4" t="n">
         <v>0.00149754591671639</v>
@@ -584,11 +584,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>860</v>
+        <v>176</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R445</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R449</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -604,13 +604,13 @@
         <v>2.079275561727767e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J5" t="n">
         <v>0.00149754591671639</v>
@@ -618,11 +618,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R443</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R445</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -638,13 +638,13 @@
         <v>2.079275561727767e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J6" t="n">
         <v>0.00149754591671639</v>
@@ -652,11 +652,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>590</v>
+        <v>1297</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R447</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R443</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -672,13 +672,13 @@
         <v>2.079275561727767e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J7" t="n">
         <v>0.00149754591671639</v>
@@ -686,11 +686,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R577</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R777</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -706,13 +706,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J8" t="n">
         <v>0.001497544564692626</v>
@@ -720,11 +720,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R731</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R735</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -740,13 +740,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J9" t="n">
         <v>0.001497544564692626</v>
@@ -754,11 +754,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R637</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R673</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -774,13 +774,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J10" t="n">
         <v>0.001497544564692626</v>
@@ -788,11 +788,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1070</v>
+        <v>84</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R643</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R675</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -808,13 +808,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J11" t="n">
         <v>0.001497544564692626</v>
@@ -822,11 +822,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R535</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R645</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -842,13 +842,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I12" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J12" t="n">
         <v>0.001497544564692626</v>
@@ -856,11 +856,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>416</v>
+        <v>94</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R737</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R631</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -876,13 +876,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J13" t="n">
         <v>0.001497544564692626</v>
@@ -890,11 +890,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1087</v>
+        <v>402</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R543</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R563</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -910,13 +910,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J14" t="n">
         <v>0.001497544564692626</v>
@@ -924,11 +924,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R765</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R733</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -944,13 +944,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I15" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J15" t="n">
         <v>0.001497544564692626</v>
@@ -958,11 +958,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R681B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R639</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -978,13 +978,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J16" t="n">
         <v>0.001497544564692626</v>
@@ -992,11 +992,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R671</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R773</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1012,13 +1012,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J17" t="n">
         <v>0.001497544564692626</v>
@@ -1026,11 +1026,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R735</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R677</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1046,13 +1046,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J18" t="n">
         <v>0.001497544564692626</v>
@@ -1060,11 +1060,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1110</v>
+        <v>281</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R779</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R731</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1080,13 +1080,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J19" t="n">
         <v>0.001497544564692626</v>
@@ -1094,11 +1094,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1120</v>
+        <v>255</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R675</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R531</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1114,13 +1114,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J20" t="n">
         <v>0.001497544564692626</v>
@@ -1128,11 +1128,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R741</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R635</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1148,13 +1148,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J21" t="n">
         <v>0.001497544564692626</v>
@@ -1162,11 +1162,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R576</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R551</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1182,13 +1182,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I22" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J22" t="n">
         <v>0.001497544564692626</v>
@@ -1196,11 +1196,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R580</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R545</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1216,13 +1216,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I23" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J23" t="n">
         <v>0.001497544564692626</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1179</v>
+        <v>1130</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1250,13 +1250,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I24" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J24" t="n">
         <v>0.001497544564692626</v>
@@ -1264,11 +1264,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R567</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R737</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1284,13 +1284,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J25" t="n">
         <v>0.001497544564692626</v>
@@ -1298,11 +1298,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>253</v>
+        <v>509</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R777</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R637</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1318,13 +1318,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J26" t="n">
         <v>0.001497544564692626</v>
@@ -1332,11 +1332,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>247</v>
+        <v>944</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R775</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R535</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1352,13 +1352,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H27" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I27" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J27" t="n">
         <v>0.001497544564692626</v>
@@ -1366,11 +1366,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R665</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R681B</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1386,13 +1386,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J28" t="n">
         <v>0.001497544564692626</v>
@@ -1400,11 +1400,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>467</v>
+        <v>764</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R633</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R779</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1420,13 +1420,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J29" t="n">
         <v>0.001497544564692626</v>
@@ -1434,11 +1434,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>235</v>
+        <v>739</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R635</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R537</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1454,13 +1454,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H30" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J30" t="n">
         <v>0.001497544564692626</v>
@@ -1468,11 +1468,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>519</v>
+        <v>732</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C751</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R543</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1488,13 +1488,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J31" t="n">
         <v>0.001497544564692626</v>
@@ -1502,11 +1502,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34</v>
+        <v>1428</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R531</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R576</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1522,13 +1522,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J32" t="n">
         <v>0.001497544564692626</v>
@@ -1536,11 +1536,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R733</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R741</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1556,13 +1556,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H33" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J33" t="n">
         <v>0.001497544564692626</v>
@@ -1570,11 +1570,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>728</v>
+        <v>647</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R773</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R671</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1590,13 +1590,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H34" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J34" t="n">
         <v>0.001497544564692626</v>
@@ -1604,11 +1604,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>599</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R639</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R765</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1624,13 +1624,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H35" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J35" t="n">
         <v>0.001497544564692626</v>
@@ -1638,11 +1638,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>959</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R545</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R580</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1658,13 +1658,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J36" t="n">
         <v>0.001497544564692626</v>
@@ -1672,11 +1672,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>566</v>
+        <v>150</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R563</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R577</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1692,13 +1692,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H37" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J37" t="n">
         <v>0.001497544564692626</v>
@@ -1706,11 +1706,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>483</v>
+        <v>192</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R771</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R567</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1726,13 +1726,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H38" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J38" t="n">
         <v>0.001497544564692626</v>
@@ -1740,11 +1740,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>992</v>
+        <v>565</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R573</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C751</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1760,13 +1760,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H39" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I39" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J39" t="n">
         <v>0.001497544564692626</v>
@@ -1774,11 +1774,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>715</v>
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R631</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R643</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1794,13 +1794,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H40" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J40" t="n">
         <v>0.001497544564692626</v>
@@ -1808,11 +1808,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R739</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R573</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1828,13 +1828,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J41" t="n">
         <v>0.001497544564692626</v>
@@ -1842,11 +1842,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1353</v>
+        <v>550</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R677</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R739</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1862,13 +1862,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H42" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I42" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J42" t="n">
         <v>0.001497544564692626</v>
@@ -1876,11 +1876,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R551</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R651</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1896,13 +1896,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H43" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J43" t="n">
         <v>0.001497544564692626</v>
@@ -1910,11 +1910,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R537</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R633</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1930,13 +1930,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H44" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J44" t="n">
         <v>0.001497544564692626</v>
@@ -1944,11 +1944,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R673</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R775</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1964,13 +1964,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H45" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I45" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J45" t="n">
         <v>0.001497544564692626</v>
@@ -1978,11 +1978,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>490</v>
+        <v>169</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R651</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R665</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1998,13 +1998,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H46" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J46" t="n">
         <v>0.001497544564692626</v>
@@ -2012,11 +2012,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R645</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R771</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2032,13 +2032,13 @@
         <v>2.069811395380279e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H47" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I47" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J47" t="n">
         <v>0.001497544564692626</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>929</v>
+        <v>484</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2063,16 +2063,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F48" t="n">
-        <v>2.065636027874035e-06</v>
+        <v>2.065636027874034e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H48" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J48" t="n">
         <v>0.001497543968211554</v>
@@ -2080,11 +2080,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>267</v>
+        <v>978</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R349</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R375</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2097,16 +2097,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F49" t="n">
-        <v>2.065636027874034e-06</v>
+        <v>2.065636027874035e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J49" t="n">
         <v>0.001497543968211554</v>
@@ -2114,11 +2114,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>839</v>
+        <v>435</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R375</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300T</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2131,16 +2131,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F50" t="n">
-        <v>2.065636027874035e-06</v>
+        <v>2.065636027874034e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H50" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I50" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J50" t="n">
         <v>0.001497543968211554</v>
@@ -2148,11 +2148,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>868</v>
+        <v>1210</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R373</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R345</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2165,16 +2165,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F51" t="n">
-        <v>2.065636027874034e-06</v>
+        <v>2.065636027874035e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H51" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I51" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J51" t="n">
         <v>0.001497543968211554</v>
@@ -2182,11 +2182,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>210</v>
+        <v>493</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R379</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R339</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2199,16 +2199,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F52" t="n">
-        <v>2.065636027874035e-06</v>
+        <v>2.065636027874034e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I52" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J52" t="n">
         <v>0.001497543968211554</v>
@@ -2216,11 +2216,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>625</v>
+        <v>513</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300T</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R347</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2236,13 +2236,13 @@
         <v>2.065636027874034e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H53" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I53" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J53" t="n">
         <v>0.001497543968211554</v>
@@ -2250,11 +2250,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>366</v>
+        <v>623</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R333</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R379</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2270,13 +2270,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I54" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J54" t="n">
         <v>0.001497543968211554</v>
@@ -2284,11 +2284,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1096</v>
+        <v>1158</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R339</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R341</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2304,13 +2304,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H55" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I55" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J55" t="n">
         <v>0.001497543968211554</v>
@@ -2318,11 +2318,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>396</v>
+        <v>792</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R341</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R367</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2338,13 +2338,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H56" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I56" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J56" t="n">
         <v>0.001497543968211554</v>
@@ -2352,11 +2352,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>397</v>
+        <v>128</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R367</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R377</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2372,13 +2372,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I57" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J57" t="n">
         <v>0.001497543968211554</v>
@@ -2386,11 +2386,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R337</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R349</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2403,16 +2403,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F58" t="n">
-        <v>2.065636027874035e-06</v>
+        <v>2.065636027874034e-06</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H58" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I58" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J58" t="n">
         <v>0.001497543968211554</v>
@@ -2420,11 +2420,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1452</v>
+        <v>124</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R347</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R373</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2440,13 +2440,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H59" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I59" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J59" t="n">
         <v>0.001497543968211554</v>
@@ -2454,11 +2454,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R377</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R333</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2474,13 +2474,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H60" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I60" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J60" t="n">
         <v>0.001497543968211554</v>
@@ -2488,11 +2488,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R345</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R337</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2505,16 +2505,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F61" t="n">
-        <v>2.065636027874035e-06</v>
+        <v>2.065636027874034e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I61" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J61" t="n">
         <v>0.001497543968211554</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2542,13 +2542,13 @@
         <v>2.065636027874035e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H62" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J62" t="n">
         <v>0.001497543968211554</v>
@@ -2556,11 +2556,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1064</v>
+        <v>477</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R421</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R417</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2579,10 +2579,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H63" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I63" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J63" t="n">
         <v>0.001497535814004008</v>
@@ -2590,11 +2590,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1327</v>
+        <v>460</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R419</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R421</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2613,10 +2613,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H64" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I64" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J64" t="n">
         <v>0.001497535814004008</v>
@@ -2624,11 +2624,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R415</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R413</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2647,10 +2647,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H65" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I65" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J65" t="n">
         <v>0.001497535814004008</v>
@@ -2658,11 +2658,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>667</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R417</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R419</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2681,10 +2681,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H66" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J66" t="n">
         <v>0.001497535814004008</v>
@@ -2692,11 +2692,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R413</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R415</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2715,10 +2715,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H67" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J67" t="n">
         <v>0.001497535814004008</v>
@@ -2726,11 +2726,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R523</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C511</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2749,10 +2749,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H68" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I68" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J68" t="n">
         <v>0.001497534892169623</v>
@@ -2760,11 +2760,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R783</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R729</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2777,16 +2777,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F69" t="n">
-        <v>2.068688007858945e-06</v>
+        <v>2.068688007858946e-06</v>
       </c>
       <c r="G69" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J69" t="n">
         <v>0.001497534892169623</v>
@@ -2794,11 +2794,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>60</v>
+        <v>1003</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R583</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R517</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2817,10 +2817,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H70" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I70" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J70" t="n">
         <v>0.001497534892169623</v>
@@ -2828,11 +2828,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R789</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R515</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2851,10 +2851,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H71" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J71" t="n">
         <v>0.001497534892169623</v>
@@ -2862,11 +2862,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>939</v>
+        <v>1035</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R527</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R783</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2879,16 +2879,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F72" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G72" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H72" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I72" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J72" t="n">
         <v>0.001497534892169623</v>
@@ -2896,11 +2896,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>553</v>
+        <v>306</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R721</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R513</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2919,10 +2919,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H73" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I73" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J73" t="n">
         <v>0.001497534892169623</v>
@@ -2930,11 +2930,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>499</v>
+        <v>358</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R729</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R529</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2947,16 +2947,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F74" t="n">
-        <v>2.068688007858945e-06</v>
+        <v>2.068688007858946e-06</v>
       </c>
       <c r="G74" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H74" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J74" t="n">
         <v>0.001497534892169623</v>
@@ -2964,11 +2964,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R513</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R785</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2981,16 +2981,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F75" t="n">
-        <v>2.068688007858945e-06</v>
+        <v>2.068688007858946e-06</v>
       </c>
       <c r="G75" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H75" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J75" t="n">
         <v>0.001497534892169623</v>
@@ -2998,11 +2998,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>465</v>
+        <v>997</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R723</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C711</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3015,16 +3015,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F76" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G76" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H76" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I76" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J76" t="n">
         <v>0.001497534892169623</v>
@@ -3032,11 +3032,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C511</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R525</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3055,10 +3055,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H77" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I77" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J77" t="n">
         <v>0.001497534892169623</v>
@@ -3066,11 +3066,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>115</v>
+        <v>947</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R727</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R789</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3089,10 +3089,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H78" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I78" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J78" t="n">
         <v>0.001497534892169623</v>
@@ -3100,11 +3100,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>324</v>
+        <v>741</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R529</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R587</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3123,10 +3123,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I79" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J79" t="n">
         <v>0.001497534892169623</v>
@@ -3134,11 +3134,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>452</v>
+        <v>692</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R725</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R527</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3157,10 +3157,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H80" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I80" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J80" t="n">
         <v>0.001497534892169623</v>
@@ -3168,11 +3168,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>308</v>
+        <v>507</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R587</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R781</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3185,16 +3185,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F81" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G81" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H81" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J81" t="n">
         <v>0.001497534892169623</v>
@@ -3202,11 +3202,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>537</v>
+        <v>67</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R517</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R727</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3225,10 +3225,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H82" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J82" t="n">
         <v>0.001497534892169623</v>
@@ -3236,11 +3236,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>857</v>
+        <v>58</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C711</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R719</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3253,16 +3253,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F83" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G83" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I83" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J83" t="n">
         <v>0.001497534892169623</v>
@@ -3270,11 +3270,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>20</v>
+        <v>599</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R515</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R795</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3287,16 +3287,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F84" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G84" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H84" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J84" t="n">
         <v>0.001497534892169623</v>
@@ -3304,11 +3304,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R787</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R723</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3327,10 +3327,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H85" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I85" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J85" t="n">
         <v>0.001497534892169623</v>
@@ -3338,11 +3338,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>17</v>
+        <v>611</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R795</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R583</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3361,10 +3361,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H86" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J86" t="n">
         <v>0.001497534892169623</v>
@@ -3372,11 +3372,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>243</v>
+        <v>817</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R525</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R523</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3389,16 +3389,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F87" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G87" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H87" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J87" t="n">
         <v>0.001497534892169623</v>
@@ -3406,11 +3406,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R595</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R787</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3429,10 +3429,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H88" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J88" t="n">
         <v>0.001497534892169623</v>
@@ -3440,11 +3440,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>786</v>
+        <v>179</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R785</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R721</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3463,10 +3463,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H89" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J89" t="n">
         <v>0.001497534892169623</v>
@@ -3474,11 +3474,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>111</v>
+        <v>1137</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R579</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R595</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3491,16 +3491,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F90" t="n">
-        <v>2.068688007858946e-06</v>
+        <v>2.068688007858945e-06</v>
       </c>
       <c r="G90" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H90" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J90" t="n">
         <v>0.001497534892169623</v>
@@ -3508,11 +3508,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>703</v>
+        <v>766</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R719</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R579</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3525,16 +3525,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F91" t="n">
-        <v>2.068688007858945e-06</v>
+        <v>2.068688007858946e-06</v>
       </c>
       <c r="G91" t="n">
         <v>0.0002795061513120249</v>
       </c>
       <c r="H91" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J91" t="n">
         <v>0.001497534892169623</v>
@@ -3542,11 +3542,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R781</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R725</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3565,10 +3565,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H92" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I92" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J92" t="n">
         <v>0.001497534892169623</v>
@@ -3576,11 +3576,11 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>29</v>
+        <v>699</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R621</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R615</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3599,10 +3599,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H93" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I93" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J93" t="n">
         <v>0.001497534666832329</v>
@@ -3610,11 +3610,11 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>368</v>
+        <v>153</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R681A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R623</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3633,10 +3633,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H94" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J94" t="n">
         <v>0.001497534666832329</v>
@@ -3644,11 +3644,11 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>865</v>
+        <v>37</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R617</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R629</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3667,10 +3667,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H95" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I95" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J95" t="n">
         <v>0.001497534666832329</v>
@@ -3678,11 +3678,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>226</v>
+        <v>538</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R687</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R627</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3701,10 +3701,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H96" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J96" t="n">
         <v>0.001497534666832329</v>
@@ -3712,11 +3712,11 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>120</v>
+        <v>935</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R629</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R683</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3735,10 +3735,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H97" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I97" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J97" t="n">
         <v>0.001497534666832329</v>
@@ -3746,11 +3746,11 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>676</v>
+        <v>505</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R683</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R685</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3769,10 +3769,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H98" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I98" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J98" t="n">
         <v>0.001497534666832329</v>
@@ -3780,11 +3780,11 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1271</v>
+        <v>195</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R627</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R689</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3803,10 +3803,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H99" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I99" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J99" t="n">
         <v>0.001497534666832329</v>
@@ -3814,11 +3814,11 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>518</v>
+        <v>163</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R623</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R621</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3837,10 +3837,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H100" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I100" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J100" t="n">
         <v>0.001497534666832329</v>
@@ -3848,11 +3848,11 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R625</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C611</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3871,10 +3871,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H101" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I101" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J101" t="n">
         <v>0.001497534666832329</v>
@@ -3882,11 +3882,11 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R615</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R695</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3905,10 +3905,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H102" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I102" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J102" t="n">
         <v>0.001497534666832329</v>
@@ -3916,11 +3916,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>604</v>
+        <v>1064</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R685</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R681A</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3939,10 +3939,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H103" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I103" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J103" t="n">
         <v>0.001497534666832329</v>
@@ -3950,11 +3950,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>994</v>
+        <v>16</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C611</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R617</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3973,10 +3973,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H104" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I104" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J104" t="n">
         <v>0.001497534666832329</v>
@@ -3984,11 +3984,11 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>966</v>
+        <v>261</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R689</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R625</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4007,10 +4007,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H105" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I105" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J105" t="n">
         <v>0.001497534666832329</v>
@@ -4018,11 +4018,11 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R695</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R687</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4041,10 +4041,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H106" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I106" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J106" t="n">
         <v>0.001497534666832329</v>
@@ -4052,11 +4052,11 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>807</v>
+        <v>329</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R389</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R393</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4075,22 +4075,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H107" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J107" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>594</v>
+        <v>812</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R329</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R381</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4109,22 +4109,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H108" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J108" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>14</v>
+        <v>676</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R313</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R315</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4143,22 +4143,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H109" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I109" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J109" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R381</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R383</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4177,22 +4177,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H110" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I110" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J110" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>875</v>
+        <v>334</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R331</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R321</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -4211,22 +4211,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H111" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I111" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J111" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R383</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R395</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4245,22 +4245,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H112" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I112" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J112" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R315</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R385</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4279,22 +4279,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H113" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I113" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J113" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>571</v>
+        <v>45</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R393</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R319</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -4313,22 +4313,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H114" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I114" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J114" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>212</v>
+        <v>1000</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R317</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R323</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4347,22 +4347,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H115" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I115" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J115" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>106</v>
+        <v>382</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R327</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R331</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4381,22 +4381,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H116" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I116" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J116" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R325</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R329</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4415,22 +4415,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H117" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I117" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J117" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>196</v>
+        <v>591</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R395</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R317</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4449,22 +4449,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H118" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I118" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J118" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R323</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R389</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4483,22 +4483,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H119" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I119" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J119" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R311</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R327</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4517,22 +4517,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H120" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I120" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J120" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>142</v>
+        <v>608</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R321</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R311</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4551,22 +4551,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H121" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I121" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J121" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R319</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R325</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4585,22 +4585,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H122" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I122" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J122" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R385</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R313</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4619,22 +4619,22 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H123" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I123" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J123" t="n">
-        <v>0.001497534295688551</v>
+        <v>0.00149753429568855</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>220</v>
+        <v>811</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C700D</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C700C</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4650,21 +4650,21 @@
         <v>2.13695360439485e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H124" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I124" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J124" t="n">
-        <v>0.001497452180522407</v>
+        <v>0.001497452180522406</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>245</v>
+        <v>1144</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4684,25 +4684,25 @@
         <v>2.13695360439485e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H125" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I125" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J125" t="n">
-        <v>0.001497452180522407</v>
+        <v>0.001497452180522406</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>944</v>
+        <v>107</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C700C</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C700D</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4718,21 +4718,21 @@
         <v>2.13695360439485e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H126" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I126" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J126" t="n">
-        <v>0.001497452180522407</v>
+        <v>0.001497452180522406</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>169</v>
+        <v>1438</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4752,25 +4752,25 @@
         <v>2.13695360439485e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H127" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I127" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J127" t="n">
-        <v>0.001497452180522407</v>
+        <v>0.001497452180522406</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>628</v>
+        <v>118</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R434</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400B</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4786,25 +4786,25 @@
         <v>2.110604504904685e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H128" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I128" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J128" t="n">
-        <v>0.001497448416365337</v>
+        <v>0.001497448416365336</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R438</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4820,25 +4820,25 @@
         <v>2.110604504904685e-06</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H129" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I129" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J129" t="n">
-        <v>0.001497448416365337</v>
+        <v>0.001497448416365336</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>237</v>
+        <v>465</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400A</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4854,25 +4854,25 @@
         <v>2.110604504904685e-06</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H130" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I130" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J130" t="n">
-        <v>0.001497448416365337</v>
+        <v>0.001497448416365336</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R438</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R434</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4888,21 +4888,21 @@
         <v>2.110604504904685e-06</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H131" t="n">
-        <v>0.005022803468007872</v>
+        <v>0.00502280346800787</v>
       </c>
       <c r="I131" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J131" t="n">
-        <v>0.001497448416365337</v>
+        <v>0.001497448416365336</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>971</v>
+        <v>74</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         <v>1.685959976811034e-06</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H132" t="n">
-        <v>0.004992911366005965</v>
+        <v>0.004992911366005964</v>
       </c>
       <c r="I132" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J132" t="n">
-        <v>0.00132882685903384</v>
+        <v>0.001328826859033841</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>361</v>
+        <v>878</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4956,13 +4956,13 @@
         <v>1.397577226874906e-06</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H133" t="n">
-        <v>0.004992911366005966</v>
+        <v>0.004992911366005964</v>
       </c>
       <c r="I133" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J133" t="n">
         <v>0.001328785661498135</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>281</v>
+        <v>1295</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4993,10 +4993,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H134" t="n">
-        <v>0.004992911366005966</v>
+        <v>0.004992911366005964</v>
       </c>
       <c r="I134" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J134" t="n">
         <v>0.001328776910809517</v>
@@ -5004,11 +5004,11 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1086</v>
+        <v>866</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R5831</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R5871</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5027,10 +5027,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H135" t="n">
-        <v>0.004992911366005966</v>
+        <v>0.004992911366005964</v>
       </c>
       <c r="I135" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J135" t="n">
         <v>0.001328775988975132</v>
@@ -5038,11 +5038,11 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>768</v>
+        <v>418</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R5871</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R5831</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -5061,10 +5061,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H136" t="n">
-        <v>0.004992911366005966</v>
+        <v>0.004992911366005964</v>
       </c>
       <c r="I136" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J136" t="n">
         <v>0.001328775988975132</v>
@@ -5072,11 +5072,11 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1040</v>
+        <v>102</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465_3</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465A</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5089,16 +5089,16 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F137" t="n">
-        <v>1.737513999179602e-06</v>
+        <v>1.737513999179601e-06</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H137" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I137" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J137" t="n">
         <v>0.001041921182526109</v>
@@ -5106,11 +5106,11 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>69</v>
+        <v>890</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465_3</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5126,13 +5126,13 @@
         <v>1.737513999179601e-06</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H138" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I138" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J138" t="n">
         <v>0.001041921182526109</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>835</v>
+        <v>267</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5160,13 +5160,13 @@
         <v>1.728049832832114e-06</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H139" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I139" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J139" t="n">
         <v>0.001041919830502345</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>255</v>
+        <v>649</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5197,10 +5197,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H140" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I140" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J140" t="n">
         <v>0.001041911103286361</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>744</v>
+        <v>394</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5231,10 +5231,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H141" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I141" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J141" t="n">
         <v>0.001041911103286361</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5265,10 +5265,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H142" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I142" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J142" t="n">
         <v>0.001041911103286361</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>631</v>
+        <v>376</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5299,10 +5299,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H143" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I143" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J143" t="n">
         <v>0.001041910181451977</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>592</v>
+        <v>264</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5333,10 +5333,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H144" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I144" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J144" t="n">
         <v>0.001041909956114683</v>
@@ -5344,11 +5344,11 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>444</v>
+        <v>142</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R184</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R187</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5364,25 +5364,25 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H145" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I145" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J145" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R190B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R187A</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5398,25 +5398,25 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H146" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I146" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J146" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>712</v>
+        <v>269</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R190A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R184</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5432,25 +5432,25 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H147" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I147" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J147" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>603</v>
+        <v>375</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R187A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R190A</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5466,25 +5466,25 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H148" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I148" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J148" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>1021</v>
+        <v>471</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R187</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R190B</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5500,21 +5500,21 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H149" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I149" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J149" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>653</v>
+        <v>207</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5534,21 +5534,21 @@
         <v>1.745899508786853e-06</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H150" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I150" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J150" t="n">
-        <v>0.001041820404541689</v>
+        <v>0.001041820404541688</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>508</v>
+        <v>779</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5568,25 +5568,25 @@
         <v>1.732097599530101e-06</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H151" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I151" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J151" t="n">
-        <v>0.001041818432840366</v>
+        <v>0.001041818432840365</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>419</v>
+        <v>722</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R734</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R784</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5602,25 +5602,25 @@
         <v>1.7320975995301e-06</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H152" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I152" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J152" t="n">
-        <v>0.001041818432840366</v>
+        <v>0.001041818432840365</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>573</v>
+        <v>130</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R784</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R734</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5633,24 +5633,24 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F153" t="n">
-        <v>1.7320975995301e-06</v>
+        <v>1.732097599530101e-06</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H153" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I153" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J153" t="n">
-        <v>0.001041818432840366</v>
+        <v>0.001041818432840365</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>415</v>
+        <v>532</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5670,25 +5670,25 @@
         <v>1.7320975995301e-06</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H154" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I154" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J154" t="n">
-        <v>0.001041818432840366</v>
+        <v>0.001041818432840365</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>765</v>
+        <v>199</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R284</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R280</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5704,25 +5704,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H155" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I155" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J155" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>1230</v>
+        <v>279</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R280</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R290</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5738,25 +5738,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H156" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I156" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J156" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>695</v>
+        <v>1036</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R273</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R288</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5772,25 +5772,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H157" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I157" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J157" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>1159</v>
+        <v>1091</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R288</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R273</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5806,25 +5806,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H158" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I158" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J158" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R271</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R277</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5840,25 +5840,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H159" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I159" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J159" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>477</v>
+        <v>616</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R252</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R284</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -5874,25 +5874,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H160" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I160" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J160" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>147</v>
+        <v>583</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R283E</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R287</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -5908,25 +5908,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H161" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I161" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J161" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R275</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R283E</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -5942,25 +5942,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H162" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I162" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J162" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>996</v>
+        <v>730</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R277</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R252</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -5976,25 +5976,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H163" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I163" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J163" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>584</v>
+        <v>475</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R290</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R271</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6010,25 +6010,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H164" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I164" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J164" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>1234</v>
+        <v>240</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R287</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R275</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6044,25 +6044,25 @@
         <v>1.72080512832003e-06</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H165" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I165" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J165" t="n">
-        <v>0.001041816819630193</v>
+        <v>0.001041816819630192</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R606</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R652</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6078,25 +6078,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H166" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I166" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J166" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>1352</v>
+        <v>660</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R678</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R634</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6112,25 +6112,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H167" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I167" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J167" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>788</v>
+        <v>10</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R676</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R606</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6146,25 +6146,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H168" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I168" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J168" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>955</v>
+        <v>419</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R682</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R678</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -6180,25 +6180,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H169" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I169" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J169" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R652</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R626</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6214,25 +6214,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H170" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I170" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J170" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>316</v>
+        <v>887</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R634</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R682</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -6248,25 +6248,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H171" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I171" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J171" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R626</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R684</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -6279,28 +6279,28 @@
         <v>0.0005753739930955121</v>
       </c>
       <c r="F172" t="n">
-        <v>1.718295690273347e-06</v>
+        <v>1.718295690273348e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H172" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I172" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J172" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>1018</v>
+        <v>292</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R684</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R676</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6316,25 +6316,25 @@
         <v>1.718295690273348e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H173" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I173" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J173" t="n">
-        <v>0.001041816461139044</v>
+        <v>0.001041816461139043</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R310</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R336</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6350,25 +6350,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H174" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I174" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J174" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>127</v>
+        <v>387</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R384</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R326</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -6384,25 +6384,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H175" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I175" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J175" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>79</v>
+        <v>1227</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R364</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R320</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6418,25 +6418,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H176" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I176" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J176" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>1032</v>
+        <v>186</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R384</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6452,25 +6452,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H177" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I177" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J177" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>441</v>
+        <v>188</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R376A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R310</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -6486,25 +6486,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H178" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I178" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J178" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>461</v>
+        <v>1093</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R336</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R330B</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6520,25 +6520,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H179" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I179" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J179" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R342</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R340</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6554,25 +6554,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H180" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I180" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J180" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1144</v>
+        <v>295</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R380</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300B</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6588,25 +6588,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H181" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I181" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J181" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>350</v>
+        <v>1027</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R316</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R352</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6622,25 +6622,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H182" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I182" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J182" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>733</v>
+        <v>161</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R352</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R398</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -6656,25 +6656,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H183" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I183" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J183" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R398</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R380</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6690,25 +6690,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H184" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I184" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J184" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R364</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -6724,25 +6724,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H185" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I185" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J185" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>38</v>
+        <v>680</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R340</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C300</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6758,25 +6758,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H186" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I186" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J186" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R330B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R330A</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6792,25 +6792,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H187" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I187" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J187" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R320</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R316</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6826,25 +6826,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H188" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I188" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J188" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R330A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R376A</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -6860,25 +6860,25 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H189" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I189" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J189" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>94</v>
+        <v>579</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R326</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R342</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -6894,21 +6894,21 @@
         <v>1.709094417435512e-06</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H190" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I190" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J190" t="n">
-        <v>0.001041815146671496</v>
+        <v>0.001041815146671495</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>1125</v>
+        <v>1076</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6928,25 +6928,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H191" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I191" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J191" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>1113</v>
+        <v>990</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R562A</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6962,25 +6962,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H192" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I192" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J192" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>1308</v>
+        <v>898</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R552</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R544</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -6996,25 +6996,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H193" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I193" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J193" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>8</v>
+        <v>861</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R516</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R542</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7030,25 +7030,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H194" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I194" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J194" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>613</v>
+        <v>1558</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R566</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R564</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7064,21 +7064,21 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H195" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I195" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J195" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>430</v>
+        <v>173</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7098,25 +7098,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H196" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I196" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J196" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R510</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R552</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7132,25 +7132,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H197" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I197" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J197" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>719</v>
+        <v>14</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R542</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R508</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -7166,25 +7166,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H198" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I198" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J198" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>339</v>
+        <v>773</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R544</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R516</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7200,25 +7200,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H199" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I199" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J199" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>162</v>
+        <v>621</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R530</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R524</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7234,25 +7234,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H200" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I200" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J200" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R524</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7268,25 +7268,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H201" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I201" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J201" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>618</v>
+        <v>429</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R508</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R534</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -7302,25 +7302,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H202" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I202" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J202" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>560</v>
+        <v>311</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R534</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R530</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -7336,25 +7336,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H203" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I203" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J203" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R562A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R510</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -7370,25 +7370,25 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H204" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I204" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J204" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R564</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R566</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -7404,21 +7404,21 @@
         <v>1.706465482338988e-06</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H205" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I205" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J205" t="n">
-        <v>0.001041814771109339</v>
+        <v>0.001041814771109338</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7438,25 +7438,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H206" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I206" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J206" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R405B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R410B</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -7472,25 +7472,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H207" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I207" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J207" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>853</v>
+        <v>421</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R420</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R405B</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -7506,25 +7506,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H208" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I208" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J208" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>1182</v>
+        <v>500</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R430A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R498</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -7540,25 +7540,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H209" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I209" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J209" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>1194</v>
+        <v>529</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R420A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465B</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -7574,25 +7574,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H210" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I210" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J210" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>439</v>
+        <v>1246</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R430</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465_6</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -7608,25 +7608,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H211" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I211" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J211" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1293</v>
+        <v>530</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R444</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R442</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -7642,25 +7642,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H212" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I212" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J212" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>43</v>
+        <v>896</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R410B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R405A</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -7676,25 +7676,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H213" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I213" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J213" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400C</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R440</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -7710,25 +7710,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H214" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I214" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J214" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>437</v>
+        <v>570</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R430A</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -7744,25 +7744,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H215" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I215" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J215" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>455</v>
+        <v>17</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R416</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R444</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -7778,25 +7778,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H216" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I216" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J216" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>985</v>
+        <v>585</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R405A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R420A</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -7812,25 +7812,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H217" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I217" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J217" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>874</v>
+        <v>589</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R440</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_C400C</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -7846,25 +7846,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H218" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I218" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J218" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>757</v>
+        <v>181</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R498</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R430</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -7880,25 +7880,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H219" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I219" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J219" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>596</v>
+        <v>1430</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R442</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R410A</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -7914,25 +7914,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H220" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I220" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J220" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>576</v>
+        <v>815</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465_6</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R416</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -7948,25 +7948,25 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H221" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I221" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J221" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>516</v>
+        <v>112</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R410A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R420</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -7982,21 +7982,21 @@
         <v>1.705748500039936e-06</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H222" t="n">
-        <v>0.002984520076429476</v>
+        <v>0.002984520076429474</v>
       </c>
       <c r="I222" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J222" t="n">
-        <v>0.001041814668683296</v>
+        <v>0.001041814668683295</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1280</v>
+        <v>433</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -8016,21 +8016,21 @@
         <v>3.31245822162068e-06</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0003550349122153793</v>
+        <v>0.0003550349122153794</v>
       </c>
       <c r="H223" t="n">
-        <v>0.002975639221432898</v>
+        <v>0.002975639221432897</v>
       </c>
       <c r="I223" t="n">
-        <v>-3.115817676570271e-20</v>
+        <v>5.454787565151027e-20</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0009694615072061388</v>
+        <v>0.0009694615072061385</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>266</v>
+        <v>3</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -8050,13 +8050,13 @@
         <v>4.637441510268952e-06</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0003061024070569561</v>
+        <v>0.0003061024070569562</v>
       </c>
       <c r="H224" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I224" t="n">
-        <v>9.524564899939821e-21</v>
+        <v>2.367649881610795e-19</v>
       </c>
       <c r="J224" t="n">
         <v>0.0009626604326533136</v>
@@ -8064,11 +8064,11 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>1033</v>
+        <v>974</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465C</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465H</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -8084,25 +8084,25 @@
         <v>1.401249300924169e-06</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H225" t="n">
-        <v>0.002975639221432898</v>
+        <v>0.002975639221432897</v>
       </c>
       <c r="I225" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0009584081664132026</v>
+        <v>0.0009584081664132027</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>936</v>
+        <v>520</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465H</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R465C</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -8118,21 +8118,21 @@
         <v>1.401249300924169e-06</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H226" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I226" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0009584081664132023</v>
+        <v>0.0009584081664132027</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1051</v>
+        <v>447</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -8152,21 +8152,21 @@
         <v>1.401249300924169e-06</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H227" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I227" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0009584081664132023</v>
+        <v>0.0009584081664132027</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>53</v>
+        <v>828</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -8186,21 +8186,21 @@
         <v>1.387609767070437e-06</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0002795727355855218</v>
+        <v>0.0002795727355855219</v>
       </c>
       <c r="H228" t="n">
-        <v>0.002975639221432898</v>
+        <v>0.002975639221432897</v>
       </c>
       <c r="I228" t="n">
-        <v>-3.774555113224807e-19</v>
+        <v>2.566546322961213e-18</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0009584062179083661</v>
+        <v>0.0009584062179083663</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -8223,10 +8223,10 @@
         <v>0.0002795061513120249</v>
       </c>
       <c r="H229" t="n">
-        <v>0.002975639221432898</v>
+        <v>0.002975639221432897</v>
       </c>
       <c r="I229" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J229" t="n">
         <v>0.0009583981183465982</v>
@@ -8234,7 +8234,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>1019</v>
+        <v>201</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -8260,15 +8260,15 @@
         <v>0.002975639221432897</v>
       </c>
       <c r="I230" t="n">
-        <v>-2.387530375672291e-18</v>
+        <v>-1.865608489020961e-18</v>
       </c>
       <c r="J230" t="n">
-        <v>0.000958398118346598</v>
+        <v>0.0009583981183465982</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>314</v>
+        <v>1366</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -8288,21 +8288,21 @@
         <v>1.383488085077279e-06</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H231" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I231" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0009583036531822887</v>
+        <v>0.0009583036531822881</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>564</v>
+        <v>795</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -8322,21 +8322,21 @@
         <v>1.383488085077279e-06</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H232" t="n">
-        <v>0.002975639221432897</v>
+        <v>0.002975639221432896</v>
       </c>
       <c r="I232" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0009583036531822887</v>
+        <v>0.0009583036531822877</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>568</v>
+        <v>312</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -8356,21 +8356,21 @@
         <v>1.371657877142919e-06</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H233" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I233" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0009583019631525839</v>
+        <v>0.000958301963152583</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>805</v>
+        <v>573</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -8390,21 +8390,21 @@
         <v>1.371657877142919e-06</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H234" t="n">
         <v>0.002975639221432897</v>
       </c>
       <c r="I234" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0009583019631525839</v>
+        <v>0.000958301963152583</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -8424,21 +8424,21 @@
         <v>1.04856348390243e-06</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H235" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I235" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0008747983564600639</v>
+        <v>0.0008747983564600627</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>892</v>
+        <v>1337</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -8458,25 +8458,25 @@
         <v>1.04856348390243e-06</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H236" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I236" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0008747983564600639</v>
+        <v>0.0008747983564600627</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>624</v>
+        <v>928</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582_1</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R500A</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -8492,25 +8492,25 @@
         <v>1.03673327596807e-06</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H237" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I237" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0008747966664303589</v>
+        <v>0.0008747966664303578</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>428</v>
+        <v>664</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582_2</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R500B</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -8526,25 +8526,25 @@
         <v>1.03673327596807e-06</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H238" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I238" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0008747966664303589</v>
+        <v>0.0008747966664303578</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>690</v>
+        <v>1506</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R500B</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582_1</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -8560,25 +8560,25 @@
         <v>1.03673327596807e-06</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H239" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I239" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0008747966664303589</v>
+        <v>0.0008747966664303578</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>500</v>
+        <v>349</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R500A</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R582_2</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -8594,21 +8594,21 @@
         <v>1.03673327596807e-06</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H240" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I240" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0008747966664303589</v>
+        <v>0.0008747966664303578</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>387</v>
+        <v>747</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8628,25 +8628,25 @@
         <v>1.036055008701996e-06</v>
       </c>
       <c r="G241" t="n">
-        <v>0.0002788589041849691</v>
+        <v>0.0002788589041849692</v>
       </c>
       <c r="H241" t="n">
-        <v>0.00296681106207401</v>
+        <v>0.002966811062074008</v>
       </c>
       <c r="I241" t="n">
-        <v>4.938997376511947e-18</v>
+        <v>-1.146839555543648e-18</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0008747965695350352</v>
+        <v>0.0008747965695350341</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R181</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R179</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -8662,25 +8662,25 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0002767429039619021</v>
+        <v>0.0002767429039619022</v>
       </c>
       <c r="H242" t="n">
-        <v>0.002975639221432898</v>
+        <v>0.002975639221432897</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0007934111568252642</v>
+        <v>0.0007934111568252639</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>406</v>
+        <v>1041</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R179</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R183</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0002767429039619021</v>
+        <v>0.0002767429039619022</v>
       </c>
       <c r="H243" t="n">
         <v>0.002975639221432897</v>
@@ -8710,11 +8710,11 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1013</v>
+        <v>541</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R183</t>
+          <t>https://brickschema.org/schema/1.0.2/building_example#vav_R181</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0002767429039619021</v>
+        <v>0.0002767429039619022</v>
       </c>
       <c r="H244" t="n">
         <v>0.002975639221432897</v>
